--- a/mf-intelligence/data/processed/quant/quant_ESG_Integration_Strategy_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_ESG_Integration_Strategy_Fund_Equity_Holdings_Comparison.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>8.711195999999999</v>
+      </c>
+      <c r="E2" t="n">
         <v>9.043240000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4.153361</v>
       </c>
-      <c r="F2" t="n">
-        <v>4.504588</v>
-      </c>
       <c r="G2" t="n">
-        <v>4.889879000000001</v>
+        <v>-0.3320440000000016</v>
       </c>
       <c r="H2" t="n">
-        <v>4.538652000000001</v>
+        <v>4.557834999999999</v>
       </c>
     </row>
     <row r="3">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>7.992836</v>
+      </c>
+      <c r="E3" t="n">
         <v>8.914787</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>4.663532</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.914787</v>
+        <v>-0.9219510000000009</v>
       </c>
       <c r="H3" t="n">
-        <v>4.251255</v>
+        <v>7.992836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE202B01038</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>Piramal Finance Ltd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.769418999999999</v>
+        <v>7.951795</v>
       </c>
       <c r="E4" t="n">
-        <v>2.671117</v>
+        <v>7.017373</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.512386</v>
       </c>
       <c r="G4" t="n">
-        <v>6.098301999999999</v>
+        <v>0.9344219999999996</v>
       </c>
       <c r="H4" t="n">
-        <v>8.769418999999999</v>
+        <v>1.439408999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE931S01010</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adani Energy Solutions Limited</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.18563</v>
+        <v>7.515284</v>
       </c>
       <c r="E5" t="n">
-        <v>4.079932</v>
+        <v>6.851212</v>
       </c>
       <c r="F5" t="n">
-        <v>4.032672</v>
+        <v>6.550761</v>
       </c>
       <c r="G5" t="n">
-        <v>3.105697999999999</v>
+        <v>0.664072</v>
       </c>
       <c r="H5" t="n">
-        <v>3.152958</v>
+        <v>0.9645230000000007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE202B01038</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piramal Finance Ltd</t>
+          <t>Adani Energy Solutions Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.017373</v>
+        <v>6.68311</v>
       </c>
       <c r="E6" t="n">
-        <v>6.512386</v>
+        <v>7.18563</v>
       </c>
       <c r="F6" t="n">
-        <v>8.325765000000001</v>
+        <v>4.079932</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049869999999999</v>
+        <v>-0.5025199999999996</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.308392</v>
+        <v>2.603178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE726G01019</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>ICICI Prudential Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.00138</v>
+        <v>5.858935</v>
       </c>
       <c r="E7" t="n">
-        <v>7.256188</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9.556981</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2548079999999997</v>
+        <v>5.858935</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.555601</v>
+        <v>5.858935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.851212</v>
+        <v>5.626443</v>
       </c>
       <c r="E8" t="n">
-        <v>6.550761</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.399446</v>
+        <v>2.057932</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3004510000000007</v>
+        <v>5.626443</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4517660000000001</v>
+        <v>3.568511</v>
       </c>
     </row>
     <row r="9">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>5.354146</v>
+      </c>
+      <c r="E9" t="n">
         <v>4.911449</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.014171</v>
       </c>
-      <c r="F9" t="n">
-        <v>4.64032</v>
-      </c>
       <c r="G9" t="n">
-        <v>-0.102722</v>
+        <v>0.4426969999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2711290000000002</v>
+        <v>0.3399749999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE016A01026</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>Dabur India Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.131909</v>
+        <v>4.123527</v>
       </c>
       <c r="E10" t="n">
-        <v>3.926298</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2056110000000002</v>
+        <v>4.123527</v>
       </c>
       <c r="H10" t="n">
-        <v>4.131909</v>
+        <v>4.123527</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.371679</v>
+        <v>4.089286</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -789,21 +789,21 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.371679</v>
+        <v>4.089286</v>
       </c>
       <c r="H11" t="n">
-        <v>3.371679</v>
+        <v>4.089286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE180C01042</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Capri Global Capital Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.130396</v>
+        <v>2.77975</v>
       </c>
       <c r="E12" t="n">
-        <v>0.589028</v>
+        <v>2.708321</v>
       </c>
       <c r="F12" t="n">
-        <v>0.63528</v>
+        <v>2.743759</v>
       </c>
       <c r="G12" t="n">
-        <v>2.541368</v>
+        <v>0.07142899999999974</v>
       </c>
       <c r="H12" t="n">
-        <v>2.495116</v>
+        <v>0.03599100000000011</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE180C01042</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Capri Global Capital Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.708321</v>
+        <v>2.50462</v>
       </c>
       <c r="E13" t="n">
-        <v>2.743759</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.95139</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03543799999999964</v>
+        <v>2.50462</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2430689999999998</v>
+        <v>2.50462</v>
       </c>
     </row>
     <row r="14">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1.902312</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.902312</v>
+        <v>-1.902312</v>
       </c>
       <c r="H14" t="n">
-        <v>1.902312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -911,27 +911,27 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.571092</v>
+        <v>8.769418999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>3.653407</v>
+        <v>2.671117</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.571092</v>
+        <v>-8.769418999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.653407</v>
+        <v>-2.671117</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE814H01029</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adani Power Limited</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -943,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.130396</v>
       </c>
       <c r="F16" t="n">
-        <v>5.695908</v>
+        <v>0.589028</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-3.130396</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.695908</v>
+        <v>-0.589028</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE00H001014</t>
+          <t>INE768C01028</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SWIGGY LIMITED</t>
+          <t>Zydus Wellness Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -978,24 +978,24 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.659029</v>
+        <v>6.717629</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.659029</v>
+        <v>-6.717629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE768C01028</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zydus Wellness Ltd</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>6.717629</v>
+        <v>3.371679</v>
       </c>
       <c r="F18" t="n">
-        <v>7.530469</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.717629</v>
+        <v>-3.371679</v>
       </c>
       <c r="H18" t="n">
-        <v>-7.530469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE019A01038</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JSW Steel Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,16 +1039,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.83808</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.528663</v>
+        <v>4.925525</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.83808</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.528663</v>
+        <v>-4.925525</v>
       </c>
     </row>
     <row r="20">
@@ -1071,27 +1071,27 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.09669</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>-0.09669</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE047A01021</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Grasim Industries Ltd</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1106,24 +1106,24 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.985991</v>
+        <v>6.022069</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.985991</v>
+        <v>-6.022069</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE009A01021</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1135,27 +1135,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.131909</v>
       </c>
       <c r="F22" t="n">
-        <v>3.959041</v>
+        <v>3.926298</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-4.131909</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.959041</v>
+        <v>-3.926298</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Tata Consumer Products Ltd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1167,27 +1167,27 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.022069</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.230446</v>
+        <v>2.121902</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.022069</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.230446</v>
+        <v>-2.121902</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1199,27 +1199,27 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.057932</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3.571092</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.057932</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-3.571092</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE019A01038</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Ltd</t>
+          <t>JSW Steel Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1231,27 +1231,27 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.121902</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.83808</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.121902</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-0.83808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>4.925525</v>
+        <v>7.00138</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>7.256188</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.925525</v>
+        <v>-7.00138</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-7.256188</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_ESG_Integration_Strategy_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_ESG_Integration_Strategy_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>8.711195999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.043240000000001</v>
       </c>
-      <c r="F2" t="n">
-        <v>4.153361</v>
-      </c>
       <c r="G2" t="n">
+        <v>4.504588</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.3320440000000016</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.557834999999999</v>
+      <c r="I2" t="n">
+        <v>4.206607999999999</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>7.992836</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.914787</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
+        <v>4.663532</v>
+      </c>
+      <c r="H3" t="n">
         <v>-0.9219510000000009</v>
       </c>
-      <c r="H3" t="n">
-        <v>7.992836</v>
+      <c r="I3" t="n">
+        <v>3.329304</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>7.951795</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.017373</v>
       </c>
-      <c r="F4" t="n">
-        <v>6.512386</v>
-      </c>
       <c r="G4" t="n">
+        <v>8.325765000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9344219999999996</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.439408999999999</v>
+      <c r="I4" t="n">
+        <v>-0.3739700000000008</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7.515284</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.851212</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.550761</v>
-      </c>
       <c r="G5" t="n">
+        <v>6.399446</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.664072</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.9645230000000007</v>
+      <c r="I5" t="n">
+        <v>1.115838</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>6.68311</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.18563</v>
       </c>
-      <c r="F6" t="n">
-        <v>4.079932</v>
-      </c>
       <c r="G6" t="n">
+        <v>4.032672</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.5025199999999996</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.603178</v>
+      <c r="I6" t="n">
+        <v>2.650438</v>
       </c>
     </row>
     <row r="7">
@@ -651,21 +681,26 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>5.858935</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.858935</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>5.858935</v>
       </c>
+      <c r="I7" t="n">
+        <v>5.858935</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -683,20 +718,25 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.626443</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>2.057932</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.626443</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.568511</v>
+      <c r="I8" t="n">
+        <v>5.626443</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>5.354146</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.911449</v>
       </c>
-      <c r="F9" t="n">
-        <v>5.014171</v>
-      </c>
       <c r="G9" t="n">
+        <v>4.64032</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4426969999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.3399749999999999</v>
+      <c r="I9" t="n">
+        <v>0.7138260000000001</v>
       </c>
     </row>
     <row r="10">
@@ -747,21 +792,26 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>4.123527</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.123527</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>4.123527</v>
       </c>
+      <c r="I10" t="n">
+        <v>4.123527</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -779,21 +829,26 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>4.089286</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.089286</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>4.089286</v>
       </c>
+      <c r="I11" t="n">
+        <v>4.089286</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -811,20 +866,25 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.77975</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.708321</v>
       </c>
-      <c r="F12" t="n">
-        <v>2.743759</v>
-      </c>
       <c r="G12" t="n">
+        <v>2.95139</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.07142899999999974</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.03599100000000011</v>
+      <c r="I12" t="n">
+        <v>-0.17164</v>
       </c>
     </row>
     <row r="13">
@@ -843,21 +903,26 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.50462</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.50462</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>2.50462</v>
       </c>
+      <c r="I13" t="n">
+        <v>2.50462</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,31 +940,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>1.902312</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>-1.902312</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE814H01029</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>Adani Power Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>8.769418999999999</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.671117</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.769418999999999</v>
+        <v>5.695908</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.671117</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-5.695908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>3.130396</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.589028</v>
+        <v>3.371679</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.130396</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.589028</v>
+        <v>-3.371679</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE768C01028</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zydus Wellness Ltd</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.717629</v>
+        <v>8.769418999999999</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.717629</v>
+        <v>-8.769418999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE768C01028</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Zydus Wellness Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>3.371679</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.371679</v>
+        <v>7.530469</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-7.530469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE009A01021</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.925525</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.959041</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.925525</v>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.959041</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,31 +1162,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09669</v>
+        <v>3.130396</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.63528</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.09669</v>
+        <v>-3.130396</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.63528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE00H001014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>SWIGGY LIMITED</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,31 +1199,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.022069</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.659029</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.022069</v>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-2.659029</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1131,31 +1236,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>4.131909</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.926298</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.131909</v>
+        <v>6.230446</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.926298</v>
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-6.230446</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Ltd</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1163,20 +1273,25 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.121902</v>
+        <v>4.131909</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.121902</v>
+        <v>-4.131909</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1195,31 +1310,36 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>3.571092</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.653407</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.571092</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-3.653407</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE019A01038</t>
+          <t>INE047A01021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JSW Steel Limited</t>
+          <t>Grasim Industries Ltd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1227,52 +1347,99 @@
           <t>quant ESG Integration Strategy Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.83808</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.985991</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.83808</v>
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-2.985991</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>INE019A01038</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>JSW Steel Limited</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.528663</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-1.528663</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>INE271C01023</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>DLF Limited</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>quant ESG Integration Strategy Fund</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>7.00138</v>
       </c>
-      <c r="F26" t="n">
-        <v>7.256188</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
+        <v>9.556981</v>
+      </c>
+      <c r="H27" t="n">
         <v>-7.00138</v>
       </c>
-      <c r="H26" t="n">
-        <v>-7.256188</v>
+      <c r="I27" t="n">
+        <v>-9.556981</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_ESG_Integration_Strategy_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_ESG_Integration_Strategy_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.711195999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.043240000000001</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4.504588</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-0.3320440000000016</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>4.206607999999999</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7.992836</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8.914787</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4.663532</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-0.9219510000000009</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>3.329304</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.951795</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7.017373</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>8.325765000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.9344219999999996</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-0.3739700000000008</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.515284</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>6.851212</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>6.399446</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.664072</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1.115838</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.68311</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>7.18563</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>4.032672</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.5025199999999996</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>2.650438</v>
       </c>
     </row>
@@ -678,29 +708,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.858935</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.858935</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>5.858935</v>
       </c>
+      <c r="J7" t="n">
+        <v>5.858935</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -715,29 +750,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.626443</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5.626443</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>5.626443</v>
       </c>
+      <c r="J8" t="n">
+        <v>5.626443</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.354146</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.911449</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>4.64032</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.4426969999999999</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.7138260000000001</v>
       </c>
     </row>
@@ -789,29 +834,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.123527</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.123527</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>4.123527</v>
       </c>
+      <c r="J10" t="n">
+        <v>4.123527</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -826,29 +876,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.089286</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4.089286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>4.089286</v>
       </c>
+      <c r="J11" t="n">
+        <v>4.089286</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.77975</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.708321</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>2.95139</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>0.07142899999999974</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-0.17164</v>
       </c>
     </row>
@@ -900,29 +960,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.50462</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.50462</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>2.50462</v>
       </c>
+      <c r="J13" t="n">
+        <v>2.50462</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.902312</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>-1.902312</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.695908</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>-5.695908</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>3.371679</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>-3.371679</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>8.769418999999999</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>-8.769418999999999</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>7.530469</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>-7.530469</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.959041</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>-3.959041</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.130396</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.63528</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-3.130396</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-0.63528</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.659029</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>-2.659029</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.230446</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-6.230446</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>4.131909</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>-4.131909</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.653407</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>-3.653407</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>2.985991</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>-2.985991</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Ferrous Metals</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.528663</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>-1.528663</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant ESG Integration Strategy Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant ESG Integration Strategy Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>7.00138</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>9.556981</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>-7.00138</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>-9.556981</v>
       </c>
     </row>
